--- a/Foundation/egovframework.rte.fdl.excel/testdata/testUseTemplate2.xlsx
+++ b/Foundation/egovframework.rte.fdl.excel/testdata/testUseTemplate2.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="780" windowWidth="17775" windowHeight="7605"/>
+    <workbookView windowHeight="7605" windowWidth="17775" xWindow="840" yWindow="780"/>
   </bookViews>
   <sheets>
-    <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Timesheet" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -153,7 +153,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -229,41 +229,41 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,10 +277,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -438,7 +438,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -447,13 +447,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -463,7 +463,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -472,7 +472,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -481,7 +481,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -491,12 +491,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -527,7 +527,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -546,7 +546,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -558,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -574,7 +574,7 @@
     <col min="3" max="9" customWidth="true" width="6.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="45" r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -588,7 +588,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="39.950000000000003" r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+    <row customFormat="1" r="3" s="4" spans="1:10" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -680,7 +680,7 @@
         <f>C4+D4+E4+F4+G4+H4+I4</f>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3" ht="35.1" customHeight="true">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -716,7 +716,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>